--- a/exceltemp/SF Entitati mici_RO.xlsx
+++ b/exceltemp/SF Entitati mici_RO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis.david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E45E0-FE57-4338-A036-F258E006E4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E6F245-548E-412E-8EEA-72FB788ED540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="14" xr2:uid="{8B093C1C-57D3-4EFA-94EC-79705BF29774}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="12" activeTab="12" xr2:uid="{8B093C1C-57D3-4EFA-94EC-79705BF29774}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="2613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="2612">
   <si>
     <t xml:space="preserve">Company:                </t>
   </si>
@@ -7591,9 +7591,6 @@
   </si>
   <si>
     <t>Cheltuieli cu beneficii în natură acordate angajaților</t>
-  </si>
-  <si>
-    <t>Cheltuieli cu biletele de masă</t>
   </si>
   <si>
     <t>Cheltuieli cu bonusuri reprezentand participarea angajatilor la profit</t>
@@ -9437,9 +9434,9 @@
   </sheetPr>
   <dimension ref="A1:W116"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -17386,7 +17383,7 @@
       </c>
       <c r="S105" t="str">
         <f>IF(B105&lt;6,_xlfn.IFNA(VLOOKUP(E105,'BS Mapping std'!A:F,6,0),VLOOKUP(D105,'BS Mapping std'!A:F,6,0)),_xlfn.IFNA(VLOOKUP(E105,'PL mapping Std'!A:D,4,0),VLOOKUP(D105,'PL mapping Std'!A:D,4,0)))</f>
-        <v>Cheltuieli cu biletele de masă</v>
+        <v>Cheltuieli cu bonurile de masă</v>
       </c>
       <c r="T105">
         <f>IF(B105&lt;6,_xlfn.IFNA(VLOOKUP(E105,'BS Mapping std'!A:G,7,0),VLOOKUP(D105,'BS Mapping std'!A:G,7,0)),_xlfn.IFNA(VLOOKUP(E105,'PL mapping Std'!A:E,5,0),VLOOKUP(D105,'PL mapping Std'!A:E,5,0)))</f>
@@ -18420,7 +18417,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -18475,7 +18472,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="195" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B15" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,A15,'Trial Balance'!H:H),0)</f>
@@ -18540,7 +18537,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B20" s="219">
         <f>'1. F10'!D23</f>
@@ -18663,22 +18660,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="174"/>
       <c r="B11" s="174" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C11" s="174" t="s">
         <v>2574</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="D11" s="174" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E11" s="214" t="s">
         <v>2575</v>
-      </c>
-      <c r="D11" s="174" t="s">
-        <v>2575</v>
-      </c>
-      <c r="E11" s="214" t="s">
-        <v>2576</v>
       </c>
       <c r="F11" s="214"/>
       <c r="G11" s="214"/>
@@ -18695,13 +18692,13 @@
         <v>2022</v>
       </c>
       <c r="E12" s="214" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="F12" s="214" t="s">
+        <v>2565</v>
+      </c>
+      <c r="G12" s="214" t="s">
         <v>2566</v>
-      </c>
-      <c r="G12" s="214" t="s">
-        <v>2567</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -18735,7 +18732,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="195"/>
       <c r="B15" s="195" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C15" s="196"/>
       <c r="D15" s="196"/>
@@ -18748,7 +18745,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="195" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="C16" s="196">
         <f>-ROUND(SUMIF('Trial Balance'!S:S,B16,'Trial Balance'!H:H),0)</f>
@@ -18786,7 +18783,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="195" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C18" s="196">
         <f>-ROUND(SUMIF('Trial Balance'!S:S,B18,'Trial Balance'!H:H),0)</f>
@@ -18821,10 +18818,10 @@
     </row>
     <row r="20" spans="1:7" s="159" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="178" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B20" s="178" t="s">
         <v>2580</v>
-      </c>
-      <c r="B20" s="178" t="s">
-        <v>2581</v>
       </c>
       <c r="C20" s="179">
         <f>SUM(C17:C19)</f>
@@ -18890,7 +18887,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="195" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C24" s="196">
         <f>-ROUND(SUMIF('Trial Balance'!S:S,B24,'Trial Balance'!H:H),0)</f>
@@ -18909,7 +18906,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="195" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C25" s="196">
         <f>-ROUND(SUMIF('Trial Balance'!S:S,B25,'Trial Balance'!H:H),0)</f>
@@ -18972,7 +18969,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="159" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C29" s="181">
         <f>'1. F10'!D28</f>
@@ -18998,16 +18995,16 @@
     </row>
     <row r="33" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="214" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B33" s="214" t="s">
         <v>2574</v>
       </c>
-      <c r="B33" s="214" t="s">
+      <c r="C33" s="214" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D33" s="214" t="s">
         <v>2575</v>
-      </c>
-      <c r="C33" s="214" t="s">
-        <v>2575</v>
-      </c>
-      <c r="D33" s="214" t="s">
-        <v>2576</v>
       </c>
       <c r="E33" s="214"/>
       <c r="F33" s="214"/>
@@ -19023,13 +19020,13 @@
         <v>2022</v>
       </c>
       <c r="D34" s="214" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E34" s="214" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F34" s="214" t="s">
         <v>2566</v>
-      </c>
-      <c r="F34" s="214" t="s">
-        <v>2567</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -19261,15 +19258,15 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="174" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B11" s="184" t="s">
         <v>2586</v>
-      </c>
-      <c r="B11" s="184" t="s">
-        <v>2587</v>
       </c>
       <c r="C11" s="222" t="s">
         <v>2268</v>
@@ -19278,18 +19275,18 @@
       <c r="E11" s="222"/>
       <c r="F11" s="222"/>
       <c r="G11" s="223" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="174"/>
       <c r="B12" s="184"/>
       <c r="C12" s="222" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D12" s="222"/>
       <c r="E12" s="222" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="F12" s="222"/>
       <c r="G12" s="224"/>
@@ -19301,13 +19298,13 @@
         <v>1754</v>
       </c>
       <c r="D13" s="225" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="E13" s="225" t="s">
         <v>1754</v>
       </c>
       <c r="F13" s="225" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="G13" s="226"/>
     </row>
@@ -19327,7 +19324,7 @@
       </c>
       <c r="F14" s="178"/>
       <c r="G14" s="178" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -19545,7 +19542,7 @@
     </row>
     <row r="24" spans="1:7" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="202" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B24" s="228">
         <f>'1. F10'!D32</f>
@@ -19585,7 +19582,7 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -19669,7 +19666,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="159" customFormat="1" x14ac:dyDescent="0.3">
@@ -19685,21 +19682,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="195" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B12" s="212"/>
       <c r="C12" s="212"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="195" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B13" s="212"/>
       <c r="C13" s="212"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="195" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B14" s="212"/>
       <c r="C14" s="212"/>
@@ -19730,14 +19727,14 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="195" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B20" s="212"/>
       <c r="C20" s="212"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="195" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B21" s="212"/>
       <c r="C21" s="212"/>
@@ -19757,7 +19754,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="195" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B23" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,A23,'Trial Balance'!H:H),0)</f>
@@ -19765,12 +19762,12 @@
       </c>
       <c r="C23" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,A23,'Trial Balance'!K:K),0)</f>
-        <v>0</v>
+        <v>68618</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="195" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B24" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,A24,'Trial Balance'!H:H),0)</f>
@@ -19783,7 +19780,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="195" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B25" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,A25,'Trial Balance'!H:H),0)</f>
@@ -19796,7 +19793,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="195" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B26" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,A26,'Trial Balance'!H:H),0)</f>
@@ -19809,7 +19806,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="229" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B27" s="230">
         <f>SUM(B19:B26)</f>
@@ -19817,7 +19814,7 @@
       </c>
       <c r="C27" s="230">
         <f>SUM(C19:C26)</f>
-        <v>2069101</v>
+        <v>2137719</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -19835,7 +19832,7 @@
       </c>
       <c r="C29" s="234">
         <f>C27-C28</f>
-        <v>-68618</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19933,7 +19930,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -20033,7 +20030,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="212" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="C17" s="197">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B17,'Trial Balance'!H:H),0)</f>
@@ -20049,7 +20046,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="212" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C18" s="197">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B18,'Trial Balance'!H:H),0)</f>
@@ -20142,10 +20139,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="178" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B24" s="178" t="s">
         <v>2602</v>
-      </c>
-      <c r="B24" s="178" t="s">
-        <v>2603</v>
       </c>
       <c r="C24" s="179">
         <f>SUM(C12:C23)</f>
@@ -20177,7 +20174,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="195" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="C26" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B26,'Trial Balance'!H:H),0)</f>
@@ -20193,7 +20190,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="195" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="C27" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B27,'Trial Balance'!H:H),0)</f>
@@ -20209,7 +20206,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="195" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C28" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B28,'Trial Balance'!H:H),0)</f>
@@ -20225,7 +20222,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="195" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="C29" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B29,'Trial Balance'!H:H),0)</f>
@@ -20238,7 +20235,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="178" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B30" s="178" t="s">
         <v>1432</v>
@@ -20264,7 +20261,7 @@
   </sheetPr>
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
@@ -28512,8 +28509,8 @@
   <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -28821,7 +28818,7 @@
         <v>2483</v>
       </c>
       <c r="I17" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -28838,7 +28835,7 @@
         <v>2484</v>
       </c>
       <c r="I18" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -28855,7 +28852,7 @@
         <v>2485</v>
       </c>
       <c r="I19" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -28923,7 +28920,7 @@
         <v>2486</v>
       </c>
       <c r="I23" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -28940,7 +28937,7 @@
         <v>2487</v>
       </c>
       <c r="I24" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -28957,7 +28954,7 @@
         <v>2488</v>
       </c>
       <c r="I25" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -28974,7 +28971,7 @@
         <v>2489</v>
       </c>
       <c r="I26" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -28991,7 +28988,7 @@
         <v>2490</v>
       </c>
       <c r="I27" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -29008,7 +29005,7 @@
         <v>2491</v>
       </c>
       <c r="I28" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -29025,7 +29022,7 @@
         <v>2492</v>
       </c>
       <c r="I29" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -29042,7 +29039,7 @@
         <v>2493</v>
       </c>
       <c r="I30" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -29059,7 +29056,7 @@
         <v>2494</v>
       </c>
       <c r="I31" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -29076,7 +29073,7 @@
         <v>2495</v>
       </c>
       <c r="I32" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -29093,7 +29090,7 @@
         <v>2495</v>
       </c>
       <c r="I33" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -29106,11 +29103,11 @@
       <c r="C34" t="s">
         <v>272</v>
       </c>
-      <c r="D34" t="s">
-        <v>2496</v>
+      <c r="D34" s="195" t="s">
+        <v>2607</v>
       </c>
       <c r="I34" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -29124,10 +29121,10 @@
         <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="I35" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -29141,10 +29138,10 @@
         <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="I36" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -29158,10 +29155,10 @@
         <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I37" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -29175,10 +29172,10 @@
         <v>280</v>
       </c>
       <c r="D38" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I38" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -29192,10 +29189,10 @@
         <v>280</v>
       </c>
       <c r="D39" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I39" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -29209,10 +29206,10 @@
         <v>280</v>
       </c>
       <c r="D40" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I40" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -29226,10 +29223,10 @@
         <v>280</v>
       </c>
       <c r="D41" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I41" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -29243,10 +29240,10 @@
         <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I42" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -29260,10 +29257,10 @@
         <v>280</v>
       </c>
       <c r="D43" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I43" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -29277,10 +29274,10 @@
         <v>280</v>
       </c>
       <c r="D44" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I44" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -29294,10 +29291,10 @@
         <v>280</v>
       </c>
       <c r="D45" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I45" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -29362,10 +29359,10 @@
         <v>470</v>
       </c>
       <c r="D49" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="I49" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -29379,10 +29376,10 @@
         <v>462</v>
       </c>
       <c r="D50" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I50" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -29396,10 +29393,10 @@
         <v>472</v>
       </c>
       <c r="D51" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="I51" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -29413,10 +29410,10 @@
         <v>286</v>
       </c>
       <c r="D52" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I52" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -29430,10 +29427,10 @@
         <v>286</v>
       </c>
       <c r="D53" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I53" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -29447,10 +29444,10 @@
         <v>286</v>
       </c>
       <c r="D54" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I54" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -29464,10 +29461,10 @@
         <v>286</v>
       </c>
       <c r="D55" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I55" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -29481,10 +29478,10 @@
         <v>267</v>
       </c>
       <c r="D56" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I56" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -29498,10 +29495,10 @@
         <v>286</v>
       </c>
       <c r="D57" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I57" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -29515,10 +29512,10 @@
         <v>474</v>
       </c>
       <c r="D58" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I58" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -36578,7 +36575,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -36861,7 +36858,7 @@
         <v>171</v>
       </c>
       <c r="E17" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="F17" t="s">
         <v>172</v>
@@ -36905,7 +36902,7 @@
         <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="F18" t="s">
         <v>174</v>
@@ -36946,7 +36943,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="E19" t="s">
         <v>176</v>
@@ -37078,7 +37075,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="E22" t="s">
         <v>184</v>
@@ -37329,7 +37326,7 @@
     </row>
     <row r="11" spans="1:10" ht="24.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B11" s="239" t="s">
         <v>1717</v>
@@ -41694,7 +41691,7 @@
         <v>1408</v>
       </c>
       <c r="J29" s="146" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -42602,7 +42599,7 @@
       </c>
       <c r="E71" s="235">
         <f>'N15 - Personnel'!C23</f>
-        <v>0</v>
+        <v>68618</v>
       </c>
       <c r="F71" s="238"/>
       <c r="G71" s="238"/>
@@ -49776,7 +49773,7 @@
     </row>
     <row r="15" spans="1:18" s="159" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="178" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B15" s="178"/>
       <c r="C15" s="178"/>
@@ -51262,36 +51259,36 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="159" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="24" x14ac:dyDescent="0.3">
       <c r="A53" s="184" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B53" s="184" t="s">
         <v>2264</v>
       </c>
       <c r="C53" s="184" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D53" s="184" t="s">
         <v>2525</v>
       </c>
-      <c r="D53" s="184" t="s">
+      <c r="E53" s="184" t="s">
         <v>2526</v>
       </c>
-      <c r="E53" s="184" t="s">
+      <c r="G53" s="185" t="s">
         <v>2527</v>
       </c>
-      <c r="G53" s="185" t="s">
+      <c r="H53" s="185" t="s">
         <v>2528</v>
       </c>
-      <c r="H53" s="185" t="s">
+      <c r="I53" s="186" t="s">
         <v>2529</v>
       </c>
-      <c r="I53" s="186" t="s">
+      <c r="J53" s="186" t="s">
         <v>2530</v>
-      </c>
-      <c r="J53" s="186" t="s">
-        <v>2531</v>
       </c>
       <c r="K53" s="187" t="s">
         <v>312</v>
@@ -51863,7 +51860,7 @@
     <row r="74" spans="1:20" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="1:20" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="190" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B75" s="191">
         <f>B73+B70+B59</f>
@@ -51977,7 +51974,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -51998,19 +51995,19 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="207"/>
       <c r="B12" s="200" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C12" s="200" t="s">
         <v>2535</v>
       </c>
-      <c r="C12" s="200" t="s">
+      <c r="D12" s="200" t="s">
         <v>2536</v>
       </c>
-      <c r="D12" s="200" t="s">
-        <v>2537</v>
-      </c>
       <c r="E12" s="200" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F12" s="200" t="s">
         <v>2535</v>
-      </c>
-      <c r="F12" s="200" t="s">
-        <v>2536</v>
       </c>
       <c r="G12" s="201" t="s">
         <v>1432</v>
@@ -52109,7 +52106,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="193" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -52173,7 +52170,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="193" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -52210,7 +52207,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="195" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B19" s="196">
         <f>SUMIF('Trial Balance'!S:S,A19,'Trial Balance'!H:H)</f>
@@ -52269,7 +52266,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="193" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -52301,7 +52298,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="193" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -52431,7 +52428,7 @@
     </row>
     <row r="26" spans="1:9" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="202" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="G26" s="203">
         <f>'1. F10'!E18</f>
@@ -52541,7 +52538,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="159" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -52550,16 +52547,16 @@
       <c r="C11" s="208"/>
       <c r="D11" s="163"/>
       <c r="E11" s="167" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F11" s="168" t="s">
         <v>2545</v>
-      </c>
-      <c r="F11" s="168" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="209"/>
       <c r="B12" s="209" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C12" s="209">
         <f>'Trial Balance'!J6</f>
@@ -52578,10 +52575,10 @@
       <c r="C13" s="175"/>
       <c r="D13" s="175"/>
       <c r="E13" s="175" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F13" s="175" t="s">
         <v>2548</v>
-      </c>
-      <c r="F13" s="175" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -52607,7 +52604,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="195" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C15" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B15,'Trial Balance'!H:H),0)</f>
@@ -52645,7 +52642,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="195" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C17" s="179">
         <f>SUM(C14:C16)</f>
@@ -52684,10 +52681,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="178" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B19" s="178" t="s">
         <v>2552</v>
-      </c>
-      <c r="B19" s="178" t="s">
-        <v>2553</v>
       </c>
       <c r="C19" s="179">
         <f>C17-C18</f>
@@ -52721,7 +52718,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="195" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C21" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B21,'Trial Balance'!H:H),0)</f>
@@ -52739,7 +52736,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="195" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C22" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B22,'Trial Balance'!H:H),0)</f>
@@ -52757,7 +52754,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="195" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C23" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,B23,'Trial Balance'!H:H),0)</f>
@@ -52775,7 +52772,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="178" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C24" s="179">
         <f>SUM(C21:C23)</f>
@@ -52793,7 +52790,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="195" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C25" s="196">
         <f>-ROUND(SUMIF('Trial Balance'!S:S,B25,'Trial Balance'!H:H),0)</f>
@@ -52808,10 +52805,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="178" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B26" s="195" t="s">
         <v>2559</v>
-      </c>
-      <c r="B26" s="195" t="s">
-        <v>2560</v>
       </c>
       <c r="C26" s="179">
         <f>C24-C25</f>
@@ -52872,10 +52869,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="178" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B30" s="178" t="s">
         <v>2561</v>
-      </c>
-      <c r="B30" s="178" t="s">
-        <v>2562</v>
       </c>
       <c r="C30" s="179">
         <f>C28-C29</f>
@@ -52918,10 +52915,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="178" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B33" s="178" t="s">
         <v>2563</v>
-      </c>
-      <c r="B33" s="178" t="s">
-        <v>2564</v>
       </c>
       <c r="C33" s="179">
         <f>C19+C26+C30+C31</f>
@@ -52950,7 +52947,7 @@
       </c>
       <c r="D38" s="215"/>
       <c r="E38" s="216" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="F38" s="217"/>
     </row>
@@ -52959,18 +52956,18 @@
       <c r="B39" s="214"/>
       <c r="C39" s="214"/>
       <c r="D39" s="218" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E39" s="218" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F39" s="218" t="s">
         <v>2566</v>
-      </c>
-      <c r="F39" s="218" t="s">
-        <v>2567</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="195" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B40" s="196">
         <f>ROUND(SUMIF('Trial Balance'!S:S,A40,'Trial Balance'!H:H),0)</f>
@@ -53050,7 +53047,7 @@
     </row>
     <row r="45" spans="1:8" s="159" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="178" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B45" s="179">
         <f>SUM(B40:B44)</f>
@@ -53066,7 +53063,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="195" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B46" s="196">
         <f>C29</f>
@@ -53082,7 +53079,7 @@
     </row>
     <row r="47" spans="1:8" s="159" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="178" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B47" s="179">
         <f>B45-B46</f>
